--- a/src/Samples/MultilingualExtensionSampleConsoleApp/Resources/AppResources.nb-NO.resx.xlsx
+++ b/src/Samples/MultilingualExtensionSampleConsoleApp/Resources/AppResources.nb-NO.resx.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -29,13 +29,64 @@
     <t xml:space="preserve">Enter_Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter email please</t>
+    <t xml:space="preserve">Enter email please!</t>
   </si>
   <si>
     <t xml:space="preserve">Skriv inn e-post vennligst</t>
   </si>
   <si>
-    <t xml:space="preserve">New</t>
+    <t xml:space="preserve">Need review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter_Email_To_Be_The_Next_User_To_Be_Able_To_Login_To_The_Best_Office_System_In_The_World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skriv inn e-post vær så snill!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hjem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press_Any_Key_To_Exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press any key to exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trykk på en tast for å avslutte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuglen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kua</t>
   </si>
 </sst>
 </file>
@@ -115,6 +166,126 @@
       </c>
       <c r="E2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/Samples/MultilingualExtensionSampleConsoleApp/Resources/AppResources.nb-NO.resx.xlsx
+++ b/src/Samples/MultilingualExtensionSampleConsoleApp/Resources/AppResources.nb-NO.resx.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transaltions" sheetId="1" r:id="Rd61244f8b215495c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transaltions" sheetId="1" r:id="R9980b47d3a1249d5"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -92,6 +92,20 @@
     </x:row>
     <x:row r="2">
       <x:c t="str">
+        <x:v>Hello</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Hello</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Hei</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Final</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c t="str">
         <x:v>Enter_Email</x:v>
       </x:c>
       <x:c t="str">
@@ -104,7 +118,7 @@
         <x:v>Need review</x:v>
       </x:c>
     </x:row>
-    <x:row r="3">
+    <x:row r="4">
       <x:c t="str">
         <x:v>Enter_Email_To_Be_The_Next_User_To_Be_Able_To_Login_To_The_Best_Office_System_In_The_World</x:v>
       </x:c>
@@ -118,7 +132,7 @@
         <x:v>Need review</x:v>
       </x:c>
     </x:row>
-    <x:row r="4">
+    <x:row r="5">
       <x:c t="str">
         <x:v>Password</x:v>
       </x:c>
@@ -132,7 +146,7 @@
         <x:v>Need review</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="6">
       <x:c t="str">
         <x:v>Home</x:v>
       </x:c>
@@ -146,7 +160,7 @@
         <x:v>Need review</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="7">
       <x:c t="str">
         <x:v>Dog</x:v>
       </x:c>
@@ -160,7 +174,7 @@
         <x:v>Need review</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="8">
       <x:c t="str">
         <x:v>Cat</x:v>
       </x:c>
@@ -174,7 +188,7 @@
         <x:v>Need review</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="9">
       <x:c t="str">
         <x:v>Press_Any_Key_To_Exit</x:v>
       </x:c>
@@ -188,7 +202,7 @@
         <x:v>Need review</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="10">
       <x:c t="str">
         <x:v>Bird</x:v>
       </x:c>
@@ -202,7 +216,7 @@
         <x:v>Need review</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="11">
       <x:c t="str">
         <x:v>Cow</x:v>
       </x:c>
@@ -216,7 +230,7 @@
         <x:v>Need review</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="12">
       <x:c t="str">
         <x:v>Love_Is</x:v>
       </x:c>
@@ -230,29 +244,15 @@
         <x:v>Need review</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
-      <x:c t="str">
-        <x:v>Country</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Country</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Land</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Need review</x:v>
-      </x:c>
-    </x:row>
     <x:row r="13">
       <x:c t="str">
-        <x:v>Road</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Road</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Vei</x:v>
+        <x:v>House</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>House</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Hus</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Need review</x:v>
@@ -260,27 +260,13 @@
     </x:row>
     <x:row r="14">
       <x:c t="str">
-        <x:v>Test</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Test</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Test</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Need review</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15">
-      <x:c t="str">
-        <x:v>House</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>House</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Hus</x:v>
+        <x:v>Street</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Street</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>gate</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Need review</x:v>
